--- a/Testcase Hashtag.xlsx
+++ b/Testcase Hashtag.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="174">
   <si>
     <t>Project Name:</t>
   </si>
@@ -478,12 +478,6 @@
     <t>Enter invalid details in all textboxes</t>
   </si>
   <si>
-    <t>Validate applying for job with details of an existing applicant in all given textboxes</t>
-  </si>
-  <si>
-    <t>Enter an existing applicant details in all textboxes</t>
-  </si>
-  <si>
     <t>Validate applying for job without filling any textboxes</t>
   </si>
   <si>
@@ -505,10 +499,10 @@
     <t>Enter a name containing alphanumerics and special characters in the NAME textbox</t>
   </si>
   <si>
-    <t>Validate apply for job with invalid email id(@ and . not present)</t>
-  </si>
-  <si>
-    <t>Enter a value without @ and . in it</t>
+    <t>Validate apply for job with invalid email id(@ or. not present)</t>
+  </si>
+  <si>
+    <t>Enter a value without @ or . in it</t>
   </si>
   <si>
     <t>Validate apply for job with invalid phone number(length more than 10 numbers )</t>
@@ -549,12 +543,6 @@
   </si>
   <si>
     <t>Click on Hyperlinks,buttons and icons</t>
-  </si>
-  <si>
-    <t>Validate that clicking on the hyperlink ,button or icon will navigate to the respective page/option</t>
-  </si>
-  <si>
-    <t>Click on Hyperlink,button or icon</t>
   </si>
 </sst>
 </file>
@@ -5421,10 +5409,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6021,9 +6009,9 @@
         <v>142</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -6091,7 +6079,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="18"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -6104,7 +6092,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -6126,9 +6114,9 @@
         <v>142</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="26"/>
       <c r="K44" s="10"/>
     </row>
@@ -6168,7 +6156,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="10"/>
@@ -6182,7 +6170,9 @@
       <c r="B48" s="11"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
+      <c r="E48" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -6209,7 +6199,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="16"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -6223,8 +6213,8 @@
       <c r="B51" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>156</v>
+      <c r="C51" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="14" t="s">
@@ -6240,7 +6230,7 @@
     <row r="52" spans="1:11">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="13"/>
       <c r="E52" s="15" t="s">
         <v>143</v>
@@ -6252,13 +6242,13 @@
       <c r="J52" s="26"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" ht="28.8" spans="1:11">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="14" t="s">
-        <v>157</v>
+      <c r="E53" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -6270,10 +6260,10 @@
     <row r="54" spans="1:11">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="13"/>
       <c r="E54" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="10"/>
@@ -6285,7 +6275,7 @@
     <row r="55" spans="1:11">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="13"/>
       <c r="E55" s="14" t="s">
         <v>149</v>
@@ -6300,7 +6290,7 @@
     <row r="56" spans="1:11">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
       <c r="F56" s="10"/>
@@ -6313,7 +6303,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
       <c r="F57" s="18"/>
@@ -6330,7 +6320,7 @@
       <c r="B58" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="12" t="s">
         <v>159</v>
       </c>
       <c r="D58" s="13"/>
@@ -6347,7 +6337,7 @@
     <row r="59" spans="1:11">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="20"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="15" t="s">
         <v>143</v>
@@ -6359,12 +6349,12 @@
       <c r="J59" s="26"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" ht="28.8" spans="1:11">
+    <row r="60" spans="1:11">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="20"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="14" t="s">
         <v>160</v>
       </c>
       <c r="F60" s="10"/>
@@ -6377,10 +6367,10 @@
     <row r="61" spans="1:11">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="20"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="10"/>
@@ -6392,7 +6382,7 @@
     <row r="62" spans="1:11">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
-      <c r="C62" s="20"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="14" t="s">
         <v>149</v>
@@ -6407,7 +6397,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="20"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
       <c r="F63" s="10"/>
@@ -6420,7 +6410,7 @@
     <row r="64" spans="1:11">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="22"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
       <c r="F64" s="18"/>
@@ -6437,7 +6427,7 @@
       <c r="B65" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D65" s="13"/>
@@ -6454,7 +6444,7 @@
     <row r="66" spans="1:11">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="13"/>
       <c r="E66" s="15" t="s">
         <v>143</v>
@@ -6469,9 +6459,9 @@
     <row r="67" spans="1:11">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="21" t="s">
         <v>162</v>
       </c>
       <c r="F67" s="10"/>
@@ -6484,10 +6474,10 @@
     <row r="68" spans="1:11">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="13"/>
       <c r="E68" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="10"/>
@@ -6499,7 +6489,7 @@
     <row r="69" spans="1:11">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
         <v>149</v>
@@ -6514,7 +6504,7 @@
     <row r="70" spans="1:11">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="13"/>
       <c r="E70" s="14"/>
       <c r="F70" s="10"/>
@@ -6527,7 +6517,7 @@
     <row r="71" spans="1:11">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
       <c r="F71" s="18"/>
@@ -6544,7 +6534,7 @@
       <c r="B72" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="20" t="s">
         <v>163</v>
       </c>
       <c r="D72" s="13"/>
@@ -6594,7 +6584,7 @@
       <c r="C75" s="20"/>
       <c r="D75" s="13"/>
       <c r="E75" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="10"/>
@@ -6651,7 +6641,7 @@
       <c r="B79" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="12" t="s">
         <v>165</v>
       </c>
       <c r="D79" s="13"/>
@@ -6668,7 +6658,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
-      <c r="C80" s="20"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="15" t="s">
         <v>143</v>
@@ -6680,10 +6670,10 @@
       <c r="J80" s="26"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" ht="28.8" spans="1:11">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="20"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="21" t="s">
         <v>166</v>
@@ -6698,10 +6688,10 @@
     <row r="82" spans="1:11">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="20"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="10"/>
@@ -6713,7 +6703,7 @@
     <row r="83" spans="1:11">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
-      <c r="C83" s="20"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="14" t="s">
         <v>149</v>
@@ -6728,7 +6718,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
-      <c r="C84" s="20"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="14"/>
       <c r="F84" s="10"/>
@@ -6741,7 +6731,7 @@
     <row r="85" spans="1:11">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
-      <c r="C85" s="22"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="14"/>
       <c r="F85" s="18"/>
@@ -6787,12 +6777,12 @@
       <c r="J87" s="26"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" ht="28.8" spans="1:11">
+    <row r="88" spans="1:11">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
-      <c r="E88" s="21" t="s">
+      <c r="E88" s="14" t="s">
         <v>168</v>
       </c>
       <c r="F88" s="10"/>
@@ -6808,7 +6798,7 @@
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="10"/>
@@ -6894,12 +6884,12 @@
       <c r="J94" s="26"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" ht="28.8" spans="1:11">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="21" t="s">
         <v>170</v>
       </c>
       <c r="F95" s="10"/>
@@ -6915,7 +6905,7 @@
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="10"/>
@@ -6970,10 +6960,10 @@
         <v>88</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="14" t="s">
@@ -7001,13 +6991,13 @@
       <c r="J101" s="26"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" ht="28.8" spans="1:11">
+    <row r="102" spans="1:11">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
-      <c r="E102" s="21" t="s">
-        <v>172</v>
+      <c r="E102" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
@@ -7021,9 +7011,7 @@
       <c r="B103" s="11"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
-      <c r="E103" s="14" t="s">
-        <v>158</v>
-      </c>
+      <c r="E103" s="14"/>
       <c r="F103" s="16"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -7036,9 +7024,7 @@
       <c r="B104" s="11"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
-      <c r="E104" s="14" t="s">
-        <v>149</v>
-      </c>
+      <c r="E104" s="14"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
@@ -7072,214 +7058,8 @@
       <c r="J106" s="26"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="10"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="10"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="10"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="10"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="10"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="10"/>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="10"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="10"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="10"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="10"/>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="10"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="10"/>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="10"/>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="10"/>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="10"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="10"/>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="10"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="10"/>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="10"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="10"/>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="10"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="10"/>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="139">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="A2:C2"/>
@@ -7307,8 +7087,6 @@
     <mergeCell ref="A86:A92"/>
     <mergeCell ref="A93:A99"/>
     <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A114:A120"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="B23:B29"/>
@@ -7323,8 +7101,6 @@
     <mergeCell ref="B86:B92"/>
     <mergeCell ref="B93:B99"/>
     <mergeCell ref="B100:B106"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="B114:B120"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="C23:C29"/>
@@ -7339,8 +7115,6 @@
     <mergeCell ref="C86:C92"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="C100:C106"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C114:C120"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="D23:D29"/>
@@ -7355,8 +7129,6 @@
     <mergeCell ref="D86:D92"/>
     <mergeCell ref="D93:D99"/>
     <mergeCell ref="D100:D106"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="D114:D120"/>
     <mergeCell ref="G9:G15"/>
     <mergeCell ref="G16:G22"/>
     <mergeCell ref="G23:G29"/>
@@ -7371,8 +7143,6 @@
     <mergeCell ref="G86:G92"/>
     <mergeCell ref="G93:G99"/>
     <mergeCell ref="G100:G106"/>
-    <mergeCell ref="G107:G113"/>
-    <mergeCell ref="G114:G120"/>
     <mergeCell ref="H9:H15"/>
     <mergeCell ref="H16:H22"/>
     <mergeCell ref="H23:H29"/>
@@ -7387,8 +7157,6 @@
     <mergeCell ref="H86:H92"/>
     <mergeCell ref="H93:H99"/>
     <mergeCell ref="H100:H106"/>
-    <mergeCell ref="H107:H113"/>
-    <mergeCell ref="H114:H120"/>
     <mergeCell ref="I9:I15"/>
     <mergeCell ref="I16:I22"/>
     <mergeCell ref="I23:I29"/>
@@ -7403,8 +7171,6 @@
     <mergeCell ref="I86:I92"/>
     <mergeCell ref="I93:I99"/>
     <mergeCell ref="I100:I106"/>
-    <mergeCell ref="I107:I113"/>
-    <mergeCell ref="I114:I120"/>
     <mergeCell ref="J9:J15"/>
     <mergeCell ref="J16:J22"/>
     <mergeCell ref="J23:J29"/>
@@ -7419,8 +7185,6 @@
     <mergeCell ref="J86:J92"/>
     <mergeCell ref="J93:J99"/>
     <mergeCell ref="J100:J106"/>
-    <mergeCell ref="J107:J113"/>
-    <mergeCell ref="J114:J120"/>
     <mergeCell ref="K9:K15"/>
     <mergeCell ref="K16:K22"/>
     <mergeCell ref="K23:K29"/>
@@ -7435,8 +7199,6 @@
     <mergeCell ref="K86:K92"/>
     <mergeCell ref="K93:K99"/>
     <mergeCell ref="K100:K106"/>
-    <mergeCell ref="K107:K113"/>
-    <mergeCell ref="K114:K120"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Testcase Hashtag.xlsx
+++ b/Testcase Hashtag.xlsx
@@ -5411,7 +5411,7 @@
   <sheetPr/>
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A74" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A84" workbookViewId="0">
       <selection activeCell="A100" sqref="A100:A106"/>
     </sheetView>
   </sheetViews>
